--- a/src/test/resources/data.xlsx
+++ b/src/test/resources/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mirek\IdeaProjects\GetDataFromWorkPortals\src\test\resources\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="117">
   <si>
     <t>TIMESTAMP</t>
   </si>
@@ -58,12 +58,340 @@
   </si>
   <si>
     <t>DETAIL</t>
+  </si>
+  <si>
+    <t>06.04.2021 10:38</t>
+  </si>
+  <si>
+    <t>jobs.cz</t>
+  </si>
+  <si>
+    <t>Design System Architekt pro Seduo.cz</t>
+  </si>
+  <si>
+    <t>LMC s.r.o.</t>
+  </si>
+  <si>
+    <t>https://www.jobs.cz/rpd/1555558490/</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Práce převážně z domova</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>PHP/React Developer/ka v týmu Jobs.cz</t>
+  </si>
+  <si>
+    <t>https://www.jobs.cz/rpd/1544481482/</t>
+  </si>
+  <si>
+    <t>Možnost občasné práce z domova</t>
+  </si>
+  <si>
+    <t>PHP/JS Developer(ka) pro Atmoskop.cz - projekt do konce roku</t>
+  </si>
+  <si>
+    <t>https://www.jobs.cz/rpd/1554774674/</t>
+  </si>
+  <si>
+    <t>ITSM Consultant</t>
+  </si>
+  <si>
+    <t>Eller, s.r.o.</t>
+  </si>
+  <si>
+    <t>https://www.jobs.cz/rpd/1556336089/</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>SAP Business Analyst</t>
+  </si>
+  <si>
+    <t>DRILL Business Services</t>
+  </si>
+  <si>
+    <t>https://www.jobs.cz/rpd/1557673551/</t>
+  </si>
+  <si>
+    <t>L1 Global Security Operations Center (GSOC) Analyst 24/7</t>
+  </si>
+  <si>
+    <t>Devoteam, s.r.o.</t>
+  </si>
+  <si>
+    <t>https://www.jobs.cz/rpd/1556173164/</t>
+  </si>
+  <si>
+    <t>Problem Manager</t>
+  </si>
+  <si>
+    <t>MONETA Money</t>
+  </si>
+  <si>
+    <t>https://www.jobs.cz/rpd/1556799562/</t>
+  </si>
+  <si>
+    <t>06.04.2021 10:39</t>
+  </si>
+  <si>
+    <t>Scrum master</t>
+  </si>
+  <si>
+    <t>Skupina Amper</t>
+  </si>
+  <si>
+    <t>https://www.jobs.cz/rpd/1556161443/</t>
+  </si>
+  <si>
+    <t>Junior konzultant – systémový specialista podpory ESS</t>
+  </si>
+  <si>
+    <t>GORDIC spol. s r.o.</t>
+  </si>
+  <si>
+    <t>https://www.jobs.cz/rpd/1548641737/</t>
+  </si>
+  <si>
+    <t>Team Lead- Biometric Solutions</t>
+  </si>
+  <si>
+    <t>Thales DIS Czech Republic s.r.o.</t>
+  </si>
+  <si>
+    <t>https://www.jobs.cz/rpd/1551192620/</t>
+  </si>
+  <si>
+    <t>Data Scientist for Time Series Forecasting</t>
+  </si>
+  <si>
+    <t>Deutsche Telekom Services Europe Czech Republic s.r.o.</t>
+  </si>
+  <si>
+    <t>https://www.jobs.cz/rpd/1557671288/</t>
+  </si>
+  <si>
+    <t>TRADER / MATEMATICKÝ ANALYTIK | ALGORITMICKÝ TRADING</t>
+  </si>
+  <si>
+    <t>Talentica s.r.o.</t>
+  </si>
+  <si>
+    <t>https://www.jobs.cz/rpd/1557667649/</t>
+  </si>
+  <si>
+    <t>40 000 – 80 000 Kč</t>
+  </si>
+  <si>
+    <t>IT Projektový manažer - projektová metodika (m/ž)</t>
+  </si>
+  <si>
+    <t>HCL TECHNOLOGIES CZECH REPUBLIC s.r.o.</t>
+  </si>
+  <si>
+    <t>https://www.jobs.cz/rpd/1556690923/</t>
+  </si>
+  <si>
+    <t>IT Projektový manažer - Quality Assurance (m/ž)</t>
+  </si>
+  <si>
+    <t>https://www.jobs.cz/rpd/1556692490/</t>
+  </si>
+  <si>
+    <t>Junior konzultant Helios Orange</t>
+  </si>
+  <si>
+    <t>TPA</t>
+  </si>
+  <si>
+    <t>https://www.jobs.cz/rpd/1536467801/</t>
+  </si>
+  <si>
+    <t>IT Analytik - Integrace / Cards &amp; Payments</t>
+  </si>
+  <si>
+    <t>https://www.jobs.cz/rpd/1553016765/</t>
+  </si>
+  <si>
+    <t>Systémový inženýr – Voice specialista</t>
+  </si>
+  <si>
+    <t>https://www.jobs.cz/rpd/1555286171/</t>
+  </si>
+  <si>
+    <t>TESTER - Developer automatizovaných testů pro web</t>
+  </si>
+  <si>
+    <t>Rockwell Automation s.r.o.</t>
+  </si>
+  <si>
+    <t>https://www.jobs.cz/rpd/1489006918/</t>
+  </si>
+  <si>
+    <t>Test Automation Consultant</t>
+  </si>
+  <si>
+    <t>cz.MicroNova s.r.o.</t>
+  </si>
+  <si>
+    <t>https://www.jobs.cz/rpd/1553760382/</t>
+  </si>
+  <si>
+    <t>Konzultant pro oblast integrací</t>
+  </si>
+  <si>
+    <t>AIMTEC a.s.</t>
+  </si>
+  <si>
+    <t>https://www.jobs.cz/rpd/1556618481/</t>
+  </si>
+  <si>
+    <t>Group Android Developer</t>
+  </si>
+  <si>
+    <t>FORTUNA GAME a.s.</t>
+  </si>
+  <si>
+    <t>https://www.jobs.cz/rpd/1555844567/</t>
+  </si>
+  <si>
+    <t>Group Front End Developer - Vue.js</t>
+  </si>
+  <si>
+    <t>https://www.jobs.cz/rpd/1555843901/</t>
+  </si>
+  <si>
+    <t>Group Python Developer</t>
+  </si>
+  <si>
+    <t>https://www.jobs.cz/rpd/1555843498/</t>
+  </si>
+  <si>
+    <t>Group Senior Configuration Specialist</t>
+  </si>
+  <si>
+    <t>https://www.jobs.cz/rpd/1552097376/</t>
+  </si>
+  <si>
+    <t>Group Configuration Specialist</t>
+  </si>
+  <si>
+    <t>https://www.jobs.cz/rpd/1534205316/</t>
+  </si>
+  <si>
+    <t>Cloud Security Analyst</t>
+  </si>
+  <si>
+    <t>Kooperativa pojišťovna, a.s., VIG</t>
+  </si>
+  <si>
+    <t>https://www.jobs.cz/rpd/1549489511/</t>
+  </si>
+  <si>
+    <t>Senior JAVA Developer - Middle Office Platform</t>
+  </si>
+  <si>
+    <t>Capgemini Czech Republic s.r.o.</t>
+  </si>
+  <si>
+    <t>https://www.jobs.cz/rpd/1550808498/</t>
+  </si>
+  <si>
+    <t>Senior JAVA Developer - Central Risk</t>
+  </si>
+  <si>
+    <t>https://www.jobs.cz/rpd/1550366199/</t>
+  </si>
+  <si>
+    <t>Senior .NET Developer - Delta-1 Front Office team</t>
+  </si>
+  <si>
+    <t>https://www.jobs.cz/rpd/1550812796/</t>
+  </si>
+  <si>
+    <t>Service Delivery Manager</t>
+  </si>
+  <si>
+    <t>NEECO s.r.o.</t>
+  </si>
+  <si>
+    <t>https://www.jobs.cz/rpd/1557666550/</t>
+  </si>
+  <si>
+    <t>06.04.2021 10:57</t>
+  </si>
+  <si>
+    <t>Servisní manažer – L1, L2 podpora</t>
+  </si>
+  <si>
+    <t>AMI Praha a.s.</t>
+  </si>
+  <si>
+    <t>https://www.jobs.cz/rpd/1552650809/</t>
+  </si>
+  <si>
+    <t>.NET/C# Programátor pro výrobní testování</t>
+  </si>
+  <si>
+    <t>ComAp a.s.</t>
+  </si>
+  <si>
+    <t>https://www.jobs.cz/rpd/1501080322/</t>
+  </si>
+  <si>
+    <t>Datový a webový analytik</t>
+  </si>
+  <si>
+    <t>Home Credit a.s.</t>
+  </si>
+  <si>
+    <t>https://www.jobs.cz/rpd/1557376769/</t>
+  </si>
+  <si>
+    <t>Specialista prodeje IT služeb</t>
+  </si>
+  <si>
+    <t>Austro-Bohemia,s.r.o.</t>
+  </si>
+  <si>
+    <t>https://www.jobs.cz/rpd/1557674928/</t>
+  </si>
+  <si>
+    <t>29 000 – 37 000 Kč</t>
+  </si>
+  <si>
+    <t>06.04.2021 10:58</t>
+  </si>
+  <si>
+    <t>Technická zákaznická podpora pre slovenských klientov</t>
+  </si>
+  <si>
+    <t>Shoptet a.s.</t>
+  </si>
+  <si>
+    <t>https://www.jobs.cz/rpd/1556739877/</t>
+  </si>
+  <si>
+    <t>Big Data Junior</t>
+  </si>
+  <si>
+    <t>ADASTRA, s.r.o.</t>
+  </si>
+  <si>
+    <t>https://www.jobs.cz/rpd/1549527252/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -410,7 +738,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC9B2CFC-478A-4BBD-9936-02EEE9F01803}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD151"/>
@@ -418,13 +746,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="63" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="41.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="44.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="31.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="63.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="41.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="44.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="24.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="31.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -453,6 +781,1566 @@
         <v>7</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" t="s">
+        <v>65</v>
+      </c>
+      <c r="F19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" t="s">
+        <v>71</v>
+      </c>
+      <c r="F21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22" t="s">
+        <v>74</v>
+      </c>
+      <c r="F22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" t="s">
+        <v>73</v>
+      </c>
+      <c r="E23" t="s">
+        <v>76</v>
+      </c>
+      <c r="F23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24" t="s">
+        <v>78</v>
+      </c>
+      <c r="F24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" t="s">
+        <v>73</v>
+      </c>
+      <c r="E25" t="s">
+        <v>80</v>
+      </c>
+      <c r="F25" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" t="s">
+        <v>18</v>
+      </c>
+      <c r="H25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" t="s">
+        <v>73</v>
+      </c>
+      <c r="E26" t="s">
+        <v>82</v>
+      </c>
+      <c r="F26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27" t="s">
+        <v>84</v>
+      </c>
+      <c r="E27" t="s">
+        <v>85</v>
+      </c>
+      <c r="F27" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" t="s">
+        <v>18</v>
+      </c>
+      <c r="H27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28" t="s">
+        <v>87</v>
+      </c>
+      <c r="E28" t="s">
+        <v>88</v>
+      </c>
+      <c r="F28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" t="s">
+        <v>18</v>
+      </c>
+      <c r="H28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" t="s">
+        <v>89</v>
+      </c>
+      <c r="D29" t="s">
+        <v>87</v>
+      </c>
+      <c r="E29" t="s">
+        <v>90</v>
+      </c>
+      <c r="F29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" t="s">
+        <v>91</v>
+      </c>
+      <c r="D30" t="s">
+        <v>87</v>
+      </c>
+      <c r="E30" t="s">
+        <v>92</v>
+      </c>
+      <c r="F30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" t="s">
+        <v>18</v>
+      </c>
+      <c r="H30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" t="s">
+        <v>93</v>
+      </c>
+      <c r="D31" t="s">
+        <v>94</v>
+      </c>
+      <c r="E31" t="s">
+        <v>95</v>
+      </c>
+      <c r="F31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" t="s">
+        <v>18</v>
+      </c>
+      <c r="H31" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>96</v>
+      </c>
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" t="s">
+        <v>14</v>
+      </c>
+      <c r="H32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>96</v>
+      </c>
+      <c r="B33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33" t="s">
+        <v>18</v>
+      </c>
+      <c r="H33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>96</v>
+      </c>
+      <c r="B34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" t="s">
+        <v>14</v>
+      </c>
+      <c r="H34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>96</v>
+      </c>
+      <c r="B35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E35" t="s">
+        <v>23</v>
+      </c>
+      <c r="F35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" t="s">
+        <v>18</v>
+      </c>
+      <c r="H35" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>96</v>
+      </c>
+      <c r="B36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" t="s">
+        <v>97</v>
+      </c>
+      <c r="D36" t="s">
+        <v>98</v>
+      </c>
+      <c r="E36" t="s">
+        <v>99</v>
+      </c>
+      <c r="F36" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36" t="s">
+        <v>18</v>
+      </c>
+      <c r="H36" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>96</v>
+      </c>
+      <c r="B37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" t="s">
+        <v>100</v>
+      </c>
+      <c r="D37" t="s">
+        <v>101</v>
+      </c>
+      <c r="E37" t="s">
+        <v>102</v>
+      </c>
+      <c r="F37" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37" t="s">
+        <v>18</v>
+      </c>
+      <c r="H37" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>96</v>
+      </c>
+      <c r="B38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" t="s">
+        <v>103</v>
+      </c>
+      <c r="D38" t="s">
+        <v>104</v>
+      </c>
+      <c r="E38" t="s">
+        <v>105</v>
+      </c>
+      <c r="F38" t="s">
+        <v>13</v>
+      </c>
+      <c r="G38" t="s">
+        <v>18</v>
+      </c>
+      <c r="H38" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>96</v>
+      </c>
+      <c r="B39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" t="s">
+        <v>106</v>
+      </c>
+      <c r="D39" t="s">
+        <v>107</v>
+      </c>
+      <c r="E39" t="s">
+        <v>108</v>
+      </c>
+      <c r="F39" t="s">
+        <v>109</v>
+      </c>
+      <c r="G39" t="s">
+        <v>18</v>
+      </c>
+      <c r="H39" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>110</v>
+      </c>
+      <c r="B40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" t="s">
+        <v>111</v>
+      </c>
+      <c r="D40" t="s">
+        <v>112</v>
+      </c>
+      <c r="E40" t="s">
+        <v>113</v>
+      </c>
+      <c r="F40" t="s">
+        <v>13</v>
+      </c>
+      <c r="G40" t="s">
+        <v>18</v>
+      </c>
+      <c r="H40" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>110</v>
+      </c>
+      <c r="B41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" t="s">
+        <v>26</v>
+      </c>
+      <c r="E41" t="s">
+        <v>27</v>
+      </c>
+      <c r="F41" t="s">
+        <v>13</v>
+      </c>
+      <c r="G41" t="s">
+        <v>14</v>
+      </c>
+      <c r="H41" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>110</v>
+      </c>
+      <c r="B42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" t="s">
+        <v>28</v>
+      </c>
+      <c r="D42" t="s">
+        <v>29</v>
+      </c>
+      <c r="E42" t="s">
+        <v>30</v>
+      </c>
+      <c r="F42" t="s">
+        <v>13</v>
+      </c>
+      <c r="G42" t="s">
+        <v>18</v>
+      </c>
+      <c r="H42" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>110</v>
+      </c>
+      <c r="B43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" t="s">
+        <v>31</v>
+      </c>
+      <c r="D43" t="s">
+        <v>32</v>
+      </c>
+      <c r="E43" t="s">
+        <v>33</v>
+      </c>
+      <c r="F43" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43" t="s">
+        <v>18</v>
+      </c>
+      <c r="H43" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>110</v>
+      </c>
+      <c r="B44" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" t="s">
+        <v>35</v>
+      </c>
+      <c r="D44" t="s">
+        <v>36</v>
+      </c>
+      <c r="E44" t="s">
+        <v>37</v>
+      </c>
+      <c r="F44" t="s">
+        <v>13</v>
+      </c>
+      <c r="G44" t="s">
+        <v>18</v>
+      </c>
+      <c r="H44" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>110</v>
+      </c>
+      <c r="B45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" t="s">
+        <v>38</v>
+      </c>
+      <c r="D45" t="s">
+        <v>39</v>
+      </c>
+      <c r="E45" t="s">
+        <v>40</v>
+      </c>
+      <c r="F45" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45" t="s">
+        <v>18</v>
+      </c>
+      <c r="H45" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>110</v>
+      </c>
+      <c r="B46" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" t="s">
+        <v>41</v>
+      </c>
+      <c r="D46" t="s">
+        <v>42</v>
+      </c>
+      <c r="E46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" t="s">
+        <v>13</v>
+      </c>
+      <c r="G46" t="s">
+        <v>18</v>
+      </c>
+      <c r="H46" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>110</v>
+      </c>
+      <c r="B47" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" t="s">
+        <v>44</v>
+      </c>
+      <c r="D47" t="s">
+        <v>45</v>
+      </c>
+      <c r="E47" t="s">
+        <v>46</v>
+      </c>
+      <c r="F47" t="s">
+        <v>13</v>
+      </c>
+      <c r="G47" t="s">
+        <v>14</v>
+      </c>
+      <c r="H47" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>110</v>
+      </c>
+      <c r="B48" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" t="s">
+        <v>114</v>
+      </c>
+      <c r="D48" t="s">
+        <v>115</v>
+      </c>
+      <c r="E48" t="s">
+        <v>116</v>
+      </c>
+      <c r="F48" t="s">
+        <v>13</v>
+      </c>
+      <c r="G48" t="s">
+        <v>18</v>
+      </c>
+      <c r="H48" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>110</v>
+      </c>
+      <c r="B49" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" t="s">
+        <v>47</v>
+      </c>
+      <c r="D49" t="s">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>49</v>
+      </c>
+      <c r="F49" t="s">
+        <v>50</v>
+      </c>
+      <c r="G49" t="s">
+        <v>14</v>
+      </c>
+      <c r="H49" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>110</v>
+      </c>
+      <c r="B50" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" t="s">
+        <v>51</v>
+      </c>
+      <c r="D50" t="s">
+        <v>52</v>
+      </c>
+      <c r="E50" t="s">
+        <v>53</v>
+      </c>
+      <c r="F50" t="s">
+        <v>13</v>
+      </c>
+      <c r="G50" t="s">
+        <v>18</v>
+      </c>
+      <c r="H50" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>110</v>
+      </c>
+      <c r="B51" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" t="s">
+        <v>54</v>
+      </c>
+      <c r="D51" t="s">
+        <v>52</v>
+      </c>
+      <c r="E51" t="s">
+        <v>55</v>
+      </c>
+      <c r="F51" t="s">
+        <v>13</v>
+      </c>
+      <c r="G51" t="s">
+        <v>18</v>
+      </c>
+      <c r="H51" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>110</v>
+      </c>
+      <c r="B52" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" t="s">
+        <v>56</v>
+      </c>
+      <c r="D52" t="s">
+        <v>57</v>
+      </c>
+      <c r="E52" t="s">
+        <v>58</v>
+      </c>
+      <c r="F52" t="s">
+        <v>13</v>
+      </c>
+      <c r="G52" t="s">
+        <v>18</v>
+      </c>
+      <c r="H52" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>110</v>
+      </c>
+      <c r="B53" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" t="s">
+        <v>59</v>
+      </c>
+      <c r="D53" t="s">
+        <v>32</v>
+      </c>
+      <c r="E53" t="s">
+        <v>60</v>
+      </c>
+      <c r="F53" t="s">
+        <v>13</v>
+      </c>
+      <c r="G53" t="s">
+        <v>18</v>
+      </c>
+      <c r="H53" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>110</v>
+      </c>
+      <c r="B54" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" t="s">
+        <v>61</v>
+      </c>
+      <c r="D54" t="s">
+        <v>32</v>
+      </c>
+      <c r="E54" t="s">
+        <v>62</v>
+      </c>
+      <c r="F54" t="s">
+        <v>13</v>
+      </c>
+      <c r="G54" t="s">
+        <v>18</v>
+      </c>
+      <c r="H54" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>110</v>
+      </c>
+      <c r="B55" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" t="s">
+        <v>63</v>
+      </c>
+      <c r="D55" t="s">
+        <v>64</v>
+      </c>
+      <c r="E55" t="s">
+        <v>65</v>
+      </c>
+      <c r="F55" t="s">
+        <v>13</v>
+      </c>
+      <c r="G55" t="s">
+        <v>18</v>
+      </c>
+      <c r="H55" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>110</v>
+      </c>
+      <c r="B56" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" t="s">
+        <v>66</v>
+      </c>
+      <c r="D56" t="s">
+        <v>67</v>
+      </c>
+      <c r="E56" t="s">
+        <v>68</v>
+      </c>
+      <c r="F56" t="s">
+        <v>13</v>
+      </c>
+      <c r="G56" t="s">
+        <v>18</v>
+      </c>
+      <c r="H56" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>110</v>
+      </c>
+      <c r="B57" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" t="s">
+        <v>69</v>
+      </c>
+      <c r="D57" t="s">
+        <v>70</v>
+      </c>
+      <c r="E57" t="s">
+        <v>71</v>
+      </c>
+      <c r="F57" t="s">
+        <v>13</v>
+      </c>
+      <c r="G57" t="s">
+        <v>14</v>
+      </c>
+      <c r="H57" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>110</v>
+      </c>
+      <c r="B58" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58" t="s">
+        <v>72</v>
+      </c>
+      <c r="D58" t="s">
+        <v>73</v>
+      </c>
+      <c r="E58" t="s">
+        <v>74</v>
+      </c>
+      <c r="F58" t="s">
+        <v>13</v>
+      </c>
+      <c r="G58" t="s">
+        <v>18</v>
+      </c>
+      <c r="H58" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>110</v>
+      </c>
+      <c r="B59" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59" t="s">
+        <v>75</v>
+      </c>
+      <c r="D59" t="s">
+        <v>73</v>
+      </c>
+      <c r="E59" t="s">
+        <v>76</v>
+      </c>
+      <c r="F59" t="s">
+        <v>13</v>
+      </c>
+      <c r="G59" t="s">
+        <v>18</v>
+      </c>
+      <c r="H59" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>110</v>
+      </c>
+      <c r="B60" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" t="s">
+        <v>77</v>
+      </c>
+      <c r="D60" t="s">
+        <v>73</v>
+      </c>
+      <c r="E60" t="s">
+        <v>78</v>
+      </c>
+      <c r="F60" t="s">
+        <v>13</v>
+      </c>
+      <c r="G60" t="s">
+        <v>18</v>
+      </c>
+      <c r="H60" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>110</v>
+      </c>
+      <c r="B61" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61" t="s">
+        <v>79</v>
+      </c>
+      <c r="D61" t="s">
+        <v>73</v>
+      </c>
+      <c r="E61" t="s">
+        <v>80</v>
+      </c>
+      <c r="F61" t="s">
+        <v>13</v>
+      </c>
+      <c r="G61" t="s">
+        <v>18</v>
+      </c>
+      <c r="H61" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/src/test/resources/data.xlsx
+++ b/src/test/resources/data.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mirek\IdeaProjects\GetDataFromWorkPortals\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{275A872D-7350-4B71-88FD-92C4226499DD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A59479A-22FE-4007-B5DC-30B6C7D9823A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="12852" windowWidth="23256" windowHeight="12576" xr2:uid="{E4C8D30A-BB96-4518-832A-65DDBDCBD732}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
   <si>
     <t>TIMESTAMP</t>
   </si>
@@ -82,12 +82,34 @@
   </si>
   <si>
     <t>ZADAVATEL</t>
+  </si>
+  <si>
+    <t>06.04.2021 14:49</t>
+  </si>
+  <si>
+    <t>jobs.cz</t>
+  </si>
+  <si>
+    <t>Junior IT Specialist</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>https://www.jobs.cz/rpd/1557615309/</t>
+  </si>
+  <si>
+    <t>Možnost občasné práce z domova</t>
+  </si>
+  <si>
+    <t>YES</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -434,29 +456,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC9B2CFC-478A-4BBD-9936-02EEE9F01803}">
-  <dimension ref="A1:Q1"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="63" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="41.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="44.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="31.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="29" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="63.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="41.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="44.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="24.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="31.140625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="14.5703125" collapsed="false"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="23.7109375" collapsed="false"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="21.0" collapsed="false"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="10.5703125" collapsed="false"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="26.5703125" collapsed="false"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="29.0" collapsed="false"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="24.5703125" collapsed="false"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="11.28515625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -510,6 +532,59 @@
       </c>
       <c r="Q1" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/data.xlsx
+++ b/src/test/resources/data.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mirek\IdeaProjects\GetDataFromWorkPortals\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A59479A-22FE-4007-B5DC-30B6C7D9823A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{608C9697-283B-47AE-A2F8-16B45643AE55}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="12852" windowWidth="23256" windowHeight="12576" xr2:uid="{E4C8D30A-BB96-4518-832A-65DDBDCBD732}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>TIMESTAMP</t>
   </si>
@@ -82,34 +82,12 @@
   </si>
   <si>
     <t>ZADAVATEL</t>
-  </si>
-  <si>
-    <t>06.04.2021 14:49</t>
-  </si>
-  <si>
-    <t>jobs.cz</t>
-  </si>
-  <si>
-    <t>Junior IT Specialist</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>https://www.jobs.cz/rpd/1557615309/</t>
-  </si>
-  <si>
-    <t>Možnost občasné práce z domova</t>
-  </si>
-  <si>
-    <t>YES</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -456,29 +434,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC9B2CFC-478A-4BBD-9936-02EEE9F01803}">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="17.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="10.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="63.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="41.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="44.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="24.7109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="31.140625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="14.5703125" collapsed="false"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="23.7109375" collapsed="false"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="21.0" collapsed="false"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="10.5703125" collapsed="false"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="26.5703125" collapsed="false"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="29.0" collapsed="false"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="24.5703125" collapsed="false"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="11.28515625" collapsed="false"/>
+    <col min="1" max="1" width="17.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="63" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="41.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="44.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="31.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="29" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -532,59 +510,6 @@
       </c>
       <c r="Q1" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O2" t="s">
-        <v>19</v>
-      </c>
-      <c r="P2" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/data.xlsx
+++ b/src/test/resources/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mirek\IdeaProjects\GetDataFromWorkPortals\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{608C9697-283B-47AE-A2F8-16B45643AE55}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B43C9F1E-0662-41D9-B1AC-B801D5F1175A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="12852" windowWidth="23256" windowHeight="12576" xr2:uid="{E4C8D30A-BB96-4518-832A-65DDBDCBD732}"/>
   </bookViews>
@@ -437,7 +437,7 @@
   <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -449,14 +449,16 @@
     <col min="5" max="5" width="44.7109375" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="24.7109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="31.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="29" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="66.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="49.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="174.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="43.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="29" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="68.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">

--- a/src/test/resources/data.xlsx
+++ b/src/test/resources/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mirek\IdeaProjects\GetDataFromWorkPortals\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B39CCC44-E8E9-4650-AC1D-9CCBEE3D9004}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8699E6DF-A30B-42F3-B4EB-36CB12EB8FB1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E4C8D30A-BB96-4518-832A-65DDBDCBD732}"/>
   </bookViews>

--- a/src/test/resources/data.xlsx
+++ b/src/test/resources/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mirek\IdeaProjects\GetDataFromWorkPortals\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8699E6DF-A30B-42F3-B4EB-36CB12EB8FB1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA8FA2C-031E-4BC5-AB30-92137F44BCBE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E4C8D30A-BB96-4518-832A-65DDBDCBD732}"/>
   </bookViews>
@@ -453,8 +453,8 @@
     <col min="9" max="9" width="66.7109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="49.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="25.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="61.28515625" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="78.42578125" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="67.140625" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="34.140625" customWidth="1" collapsed="1"/>
     <col min="14" max="14" width="43.5703125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="15" max="15" width="29" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="16" max="16" width="68.28515625" bestFit="1" customWidth="1" collapsed="1"/>

--- a/src/test/resources/data.xlsx
+++ b/src/test/resources/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mirek\IdeaProjects\GetDataFromWorkPortals\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA8FA2C-031E-4BC5-AB30-92137F44BCBE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A9BE7E-0918-4CBF-B558-47F80E151A08}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E4C8D30A-BB96-4518-832A-65DDBDCBD732}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>TIMESTAMP</t>
   </si>
@@ -69,13 +69,7 @@
     <t>BENEFITY</t>
   </si>
   <si>
-    <t>ZAŘAZENO</t>
-  </si>
-  <si>
     <t>TYP_PRACOVNÍHO_POMĚRU</t>
-  </si>
-  <si>
-    <t>DÉLKA_PRACOVNÍHO_POMĚRU</t>
   </si>
   <si>
     <t>TYP_SMLUVNÍHO_VZTAHU</t>
@@ -434,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC9B2CFC-478A-4BBD-9936-02EEE9F01803}">
-  <dimension ref="A1:Q1"/>
+  <dimension ref="A1:O1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -454,14 +448,12 @@
     <col min="10" max="10" width="49.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="25.5703125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="67.140625" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="34.140625" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="43.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="29" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="68.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="43.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="68.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -506,12 +498,6 @@
       </c>
       <c r="O1" t="s">
         <v>13</v>
-      </c>
-      <c r="P1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/data.xlsx
+++ b/src/test/resources/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mirek\IdeaProjects\GetDataFromWorkPortals\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A9BE7E-0918-4CBF-B558-47F80E151A08}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF5F0BC-78C1-4816-BC71-25C9971D4EEA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E4C8D30A-BB96-4518-832A-65DDBDCBD732}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>TIMESTAMP</t>
   </si>
@@ -76,6 +76,12 @@
   </si>
   <si>
     <t>ZADAVATEL</t>
+  </si>
+  <si>
+    <t>KONTAKTNÍ_OSOBA</t>
+  </si>
+  <si>
+    <t>KONTAKTNÍ_INFO</t>
   </si>
 </sst>
 </file>
@@ -428,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC9B2CFC-478A-4BBD-9936-02EEE9F01803}">
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:Q1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -444,16 +450,18 @@
     <col min="6" max="6" width="24.7109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="31.140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="66.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="49.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="25.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="67.140625" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="43.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="68.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="25.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="28.7109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="66.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="49.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="25.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="67.140625" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="43.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="68.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -479,24 +487,30 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>5</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>13</v>
       </c>
     </row>

--- a/src/test/resources/data.xlsx
+++ b/src/test/resources/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mirek\IdeaProjects\GetDataFromWorkPortals\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF5F0BC-78C1-4816-BC71-25C9971D4EEA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A0B061-50F3-4F15-98E8-EDB29A45E110}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E4C8D30A-BB96-4518-832A-65DDBDCBD732}"/>
   </bookViews>

--- a/src/test/resources/data.xlsx
+++ b/src/test/resources/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mirek\IdeaProjects\GetDataFromWorkPortals\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A0B061-50F3-4F15-98E8-EDB29A45E110}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEDD6C38-A51A-4F1A-BD77-570C4A538971}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E4C8D30A-BB96-4518-832A-65DDBDCBD732}"/>
+    <workbookView xWindow="-108" yWindow="12852" windowWidth="23256" windowHeight="12576" xr2:uid="{E4C8D30A-BB96-4518-832A-65DDBDCBD732}"/>
   </bookViews>
   <sheets>
     <sheet name="COLLECTED_DATA" sheetId="1" r:id="rId1"/>

--- a/src/test/resources/data.xlsx
+++ b/src/test/resources/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mirek\IdeaProjects\GetDataFromWorkPortals\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CECFDF1D-E695-4896-8FFC-8E4A6606002B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0405AFC4-8F10-4F0E-B06A-47691FD9DC1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="12852" windowWidth="23256" windowHeight="12576" xr2:uid="{E4C8D30A-BB96-4518-832A-65DDBDCBD732}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2108" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2108" uniqueCount="327">
   <si>
     <t>TIMESTAMP</t>
   </si>
@@ -84,381 +84,387 @@
     <t>KONTAKTNÍ_INFO</t>
   </si>
   <si>
-    <t>14.06.2021 13:12</t>
+    <t>14.06.2021 13:34</t>
   </si>
   <si>
     <t>datacruit.com</t>
   </si>
   <si>
-    <t>Microsoft System Administrator</t>
+    <t>Technical Specialist, Cyber Security</t>
+  </si>
+  <si>
+    <t>TietoEVRY</t>
+  </si>
+  <si>
+    <t>https://jobs.datacruit.com/pozice/technical-specialist-cyber-security-138455</t>
+  </si>
+  <si>
+    <t>By agreement</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Plný úvazek</t>
+  </si>
+  <si>
+    <t>Front-End Developer - React - Project Spain</t>
+  </si>
+  <si>
+    <t>CreativeDock</t>
+  </si>
+  <si>
+    <t>https://jobs.datacruit.com/pozice/front-end-developer-react-project-spain-138431</t>
+  </si>
+  <si>
+    <t>English (B2)</t>
+  </si>
+  <si>
+    <t>IT Quality Assurance Manager</t>
+  </si>
+  <si>
+    <t>KOMIX s.r.o.</t>
+  </si>
+  <si>
+    <t>https://jobs.datacruit.com/pozice/it-quality-assurance-manager-138415</t>
+  </si>
+  <si>
+    <t>Dohodou</t>
+  </si>
+  <si>
+    <t>Práce z domova</t>
+  </si>
+  <si>
+    <t>Back-End Developer - Java</t>
+  </si>
+  <si>
+    <t>https://jobs.datacruit.com/pozice/back-end-developer-java-138408</t>
+  </si>
+  <si>
+    <t>AWS Cloud Architect</t>
+  </si>
+  <si>
+    <t>RecruLab s.r.o.</t>
+  </si>
+  <si>
+    <t>https://jobs.datacruit.com/pozice/aws-cloud-architect-138374</t>
+  </si>
+  <si>
+    <t>300 EUR/deň</t>
+  </si>
+  <si>
+    <t>Živnostenský list</t>
+  </si>
+  <si>
+    <t>SAP ABAP Developer (remote)</t>
+  </si>
+  <si>
+    <t>https://jobs.datacruit.com/pozice/sap-abap-developer-remote-137229</t>
+  </si>
+  <si>
+    <t>angličtina (B2)</t>
+  </si>
+  <si>
+    <t>IT Project Manager</t>
+  </si>
+  <si>
+    <t>https://jobs.datacruit.com/pozice/it-project-manager-137877</t>
+  </si>
+  <si>
+    <t>.NET developer (remote)</t>
+  </si>
+  <si>
+    <t>https://jobs.datacruit.com/pozice/net-developer-remote-138254</t>
+  </si>
+  <si>
+    <t>Vue.js Developer</t>
+  </si>
+  <si>
+    <t>https://jobs.datacruit.com/pozice/vue-js-developer-132491</t>
+  </si>
+  <si>
+    <t>3 000 - 7 000 EUR/mes</t>
+  </si>
+  <si>
+    <t>Senior Laravel Developer</t>
+  </si>
+  <si>
+    <t>https://jobs.datacruit.com/pozice/senior-laravel-developer-132490</t>
+  </si>
+  <si>
+    <t>4 000 - 7 000 EUR/mes</t>
+  </si>
+  <si>
+    <t>MS Dynamics 365 konzultant</t>
+  </si>
+  <si>
+    <t>Goodcall</t>
+  </si>
+  <si>
+    <t>https://jobs.datacruit.com/pozice/ms-dynamics-365-konzultant-134511</t>
+  </si>
+  <si>
+    <t>čeština (rodný) a angličtina (B2)</t>
+  </si>
+  <si>
+    <t>Back-end Developer/TV Markíza</t>
+  </si>
+  <si>
+    <t>MARKÍZA - SLOVAKIA, spol. s r.o.</t>
+  </si>
+  <si>
+    <t>https://jobs.datacruit.com/pozice/back-end-developer-tv-markiza-137554</t>
+  </si>
+  <si>
+    <t>2 700 EUR/mes</t>
+  </si>
+  <si>
+    <t>Vysoká škola</t>
+  </si>
+  <si>
+    <t>Frontend developer - Vanilla JS, Vue.js</t>
+  </si>
+  <si>
+    <t>DISPONERO s.r.o</t>
+  </si>
+  <si>
+    <t>https://jobs.datacruit.com/pozice/frontend-developer-vanilla-js-vue-js-137964</t>
+  </si>
+  <si>
+    <t>PHP developer</t>
+  </si>
+  <si>
+    <t>https://jobs.datacruit.com/pozice/php-developer-122085</t>
+  </si>
+  <si>
+    <t>Maturita</t>
+  </si>
+  <si>
+    <t>Programátor/vývojář průmyslových aplikací</t>
+  </si>
+  <si>
+    <t>https://jobs.datacruit.com/pozice/programator-vyvojar-prumyslovych-aplikaci-135062</t>
+  </si>
+  <si>
+    <t>Výuční list</t>
+  </si>
+  <si>
+    <t>čeština (C2) a angličtina (B1)</t>
+  </si>
+  <si>
+    <t>Node.js Developer</t>
+  </si>
+  <si>
+    <t>https://jobs.datacruit.com/pozice/node-js-developer-136750</t>
+  </si>
+  <si>
+    <t>angličtina (B1)</t>
+  </si>
+  <si>
+    <t>C#/.NET Back-End Developer</t>
+  </si>
+  <si>
+    <t>https://jobs.datacruit.com/pozice/c-net-back-end-developer-136908</t>
+  </si>
+  <si>
+    <t>English (C1)</t>
+  </si>
+  <si>
+    <t>Data Modeller</t>
+  </si>
+  <si>
+    <t>https://jobs.datacruit.com/pozice/data-modeller-136813</t>
+  </si>
+  <si>
+    <t>Bakalář</t>
+  </si>
+  <si>
+    <t>Czech (C1)</t>
+  </si>
+  <si>
+    <t>Senior Data Scientist</t>
+  </si>
+  <si>
+    <t>https://jobs.datacruit.com/pozice/senior-data-scientist-136812</t>
+  </si>
+  <si>
+    <t>Senior DATA ENGINEER</t>
+  </si>
+  <si>
+    <t>https://jobs.datacruit.com/pozice/senior-data-engineer-136810</t>
+  </si>
+  <si>
+    <t>Global NOC Engineer</t>
+  </si>
+  <si>
+    <t>https://jobs.datacruit.com/pozice/global-noc-engineer-136306</t>
+  </si>
+  <si>
+    <t>MS Dynamics 365/AX SOLUTION DEVELOPER</t>
+  </si>
+  <si>
+    <t>https://jobs.datacruit.com/pozice/ms-dynamics-365-ax-solution-developer-124727</t>
+  </si>
+  <si>
+    <t>angličtina (B1) a čeština (C1)</t>
+  </si>
+  <si>
+    <t>Data Engineer</t>
+  </si>
+  <si>
+    <t>https://jobs.datacruit.com/pozice/data-engineer-135339</t>
+  </si>
+  <si>
+    <t>čeština (C2) a angličtina (B2)</t>
+  </si>
+  <si>
+    <t>Senior Network Engineer</t>
+  </si>
+  <si>
+    <t>https://jobs.datacruit.com/pozice/senior-network-engineer-137583</t>
+  </si>
+  <si>
+    <t>Vyšší odborná škola</t>
+  </si>
+  <si>
+    <t>PHP Developer</t>
+  </si>
+  <si>
+    <t>https://jobs.datacruit.com/pozice/php-developer-137574</t>
+  </si>
+  <si>
+    <t>https://jobs.datacruit.com/pozice/php-developer-137700</t>
+  </si>
+  <si>
+    <t>React Developer (remote)</t>
+  </si>
+  <si>
+    <t>https://jobs.datacruit.com/pozice/react-developer-remote-135670</t>
+  </si>
+  <si>
+    <t>Test Automation Engineer (remote)</t>
+  </si>
+  <si>
+    <t>https://jobs.datacruit.com/pozice/test-automation-engineer-remote-135503</t>
+  </si>
+  <si>
+    <t>14.06.2021 13:35</t>
+  </si>
+  <si>
+    <t>DevOps engineer (remote)</t>
+  </si>
+  <si>
+    <t>https://jobs.datacruit.com/pozice/devops-engineer-remote-135525</t>
+  </si>
+  <si>
+    <t>Senior UX Designer</t>
+  </si>
+  <si>
+    <t>https://jobs.datacruit.com/pozice/senior-ux-designer-134796</t>
+  </si>
+  <si>
+    <t>angličtina (B1) a čeština (rodný) nebo slovenština (rodný)</t>
+  </si>
+  <si>
+    <t>Senior DevOps Engineer</t>
+  </si>
+  <si>
+    <t>https://jobs.datacruit.com/pozice/senior-devops-engineer-136853</t>
+  </si>
+  <si>
+    <t>200 - 300 EUR/MD</t>
+  </si>
+  <si>
+    <t>SAP SuccessFactors Employee Central Specialist</t>
+  </si>
+  <si>
+    <t>https://jobs.datacruit.com/pozice/sap-successfactors-employee-central-specialist-134413</t>
+  </si>
+  <si>
+    <t>250 EUR/deň</t>
+  </si>
+  <si>
+    <t>Test analytik/Tester</t>
+  </si>
+  <si>
+    <t>Greyson Consulting s.r.o.</t>
+  </si>
+  <si>
+    <t>https://jobs.datacruit.com/pozice/test-analytik-tester-124440</t>
+  </si>
+  <si>
+    <t>čeština (rodný) a angličtina (B2) a slovenština (rodný)</t>
+  </si>
+  <si>
+    <t>System Engineer - DevOps</t>
+  </si>
+  <si>
+    <t>https://jobs.datacruit.com/pozice/system-engineer-devops-135985</t>
+  </si>
+  <si>
+    <t>Head of On-Line Business Development</t>
+  </si>
+  <si>
+    <t>KP2 Czech Republic s.r.o.</t>
+  </si>
+  <si>
+    <t>https://jobs.datacruit.com/pozice/head-of-on-line-business-development-137112</t>
+  </si>
+  <si>
+    <t>angličtina (B2) a čeština (rodný)</t>
+  </si>
+  <si>
+    <t>IT recruiter</t>
+  </si>
+  <si>
+    <t>DEV PACK</t>
+  </si>
+  <si>
+    <t>https://jobs.datacruit.com/pozice/it-recruiter-133176</t>
+  </si>
+  <si>
+    <t>Aplikační matematik/SW specialista</t>
+  </si>
+  <si>
+    <t>https://jobs.datacruit.com/pozice/aplikacni-matematik-sw-specialista-136617</t>
+  </si>
+  <si>
+    <t>DevOps Developer</t>
+  </si>
+  <si>
+    <t>https://jobs.datacruit.com/pozice/devops-developer-136778</t>
+  </si>
+  <si>
+    <t>DevOps (MongoDB) Senior</t>
+  </si>
+  <si>
+    <t>https://jobs.datacruit.com/pozice/devops-mongodb-senior-136777</t>
+  </si>
+  <si>
+    <t>Solution Architect</t>
+  </si>
+  <si>
+    <t>https://jobs.datacruit.com/pozice/solution-architect-136757</t>
+  </si>
+  <si>
+    <t>Digital Analyst</t>
+  </si>
+  <si>
+    <t>https://jobs.datacruit.com/pozice/digital-analyst-136744</t>
+  </si>
+  <si>
+    <t>BI Report Builder (5-month contract)</t>
   </si>
   <si>
     <t>Dixons Carphone</t>
   </si>
   <si>
-    <t>https://jobs.datacruit.com/pozice/microsoft-system-administrator-138189</t>
-  </si>
-  <si>
-    <t>By agreement</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>YES</t>
-  </si>
-  <si>
-    <t>English (B2)</t>
-  </si>
-  <si>
-    <t>Plný úvazek</t>
-  </si>
-  <si>
-    <t>Front-End Developer - React - Project Spain</t>
-  </si>
-  <si>
-    <t>CreativeDock</t>
-  </si>
-  <si>
-    <t>https://jobs.datacruit.com/pozice/front-end-developer-react-project-spain-138431</t>
-  </si>
-  <si>
-    <t>IT Quality Assurance Manager</t>
-  </si>
-  <si>
-    <t>KOMIX s.r.o.</t>
-  </si>
-  <si>
-    <t>https://jobs.datacruit.com/pozice/it-quality-assurance-manager-138415</t>
-  </si>
-  <si>
-    <t>Dohodou</t>
-  </si>
-  <si>
-    <t>Práce z domova</t>
-  </si>
-  <si>
-    <t>Back-End Developer - Java</t>
-  </si>
-  <si>
-    <t>https://jobs.datacruit.com/pozice/back-end-developer-java-138408</t>
-  </si>
-  <si>
-    <t>AWS Cloud Architect</t>
-  </si>
-  <si>
-    <t>RecruLab s.r.o.</t>
-  </si>
-  <si>
-    <t>https://jobs.datacruit.com/pozice/aws-cloud-architect-138374</t>
-  </si>
-  <si>
-    <t>300 EUR/deň</t>
-  </si>
-  <si>
-    <t>Živnostenský list</t>
-  </si>
-  <si>
-    <t>SAP ABAP Developer (remote)</t>
-  </si>
-  <si>
-    <t>https://jobs.datacruit.com/pozice/sap-abap-developer-remote-137229</t>
-  </si>
-  <si>
-    <t>angličtina (B2)</t>
-  </si>
-  <si>
-    <t>IT Project Manager</t>
-  </si>
-  <si>
-    <t>https://jobs.datacruit.com/pozice/it-project-manager-137877</t>
-  </si>
-  <si>
-    <t>.NET developer (remote)</t>
-  </si>
-  <si>
-    <t>https://jobs.datacruit.com/pozice/net-developer-remote-138254</t>
-  </si>
-  <si>
-    <t>Vue.js Developer</t>
-  </si>
-  <si>
-    <t>https://jobs.datacruit.com/pozice/vue-js-developer-132491</t>
-  </si>
-  <si>
-    <t>3 000 - 7 000 EUR/mes</t>
-  </si>
-  <si>
-    <t>Senior Laravel Developer</t>
-  </si>
-  <si>
-    <t>https://jobs.datacruit.com/pozice/senior-laravel-developer-132490</t>
-  </si>
-  <si>
-    <t>4 000 - 7 000 EUR/mes</t>
-  </si>
-  <si>
-    <t>MS Dynamics 365 konzultant</t>
-  </si>
-  <si>
-    <t>Goodcall</t>
-  </si>
-  <si>
-    <t>https://jobs.datacruit.com/pozice/ms-dynamics-365-konzultant-134511</t>
-  </si>
-  <si>
-    <t>čeština (rodný) a angličtina (B2)</t>
-  </si>
-  <si>
-    <t>Back-end Developer/TV Markíza</t>
-  </si>
-  <si>
-    <t>MARKÍZA - SLOVAKIA, spol. s r.o.</t>
-  </si>
-  <si>
-    <t>https://jobs.datacruit.com/pozice/back-end-developer-tv-markiza-137554</t>
-  </si>
-  <si>
-    <t>2 700 EUR/mes</t>
-  </si>
-  <si>
-    <t>Vysoká škola</t>
-  </si>
-  <si>
-    <t>Frontend developer - Vanilla JS, Vue.js</t>
-  </si>
-  <si>
-    <t>DISPONERO s.r.o</t>
-  </si>
-  <si>
-    <t>https://jobs.datacruit.com/pozice/frontend-developer-vanilla-js-vue-js-137964</t>
-  </si>
-  <si>
-    <t>PHP developer</t>
-  </si>
-  <si>
-    <t>https://jobs.datacruit.com/pozice/php-developer-122085</t>
-  </si>
-  <si>
-    <t>Maturita</t>
-  </si>
-  <si>
-    <t>Programátor/vývojář průmyslových aplikací</t>
-  </si>
-  <si>
-    <t>https://jobs.datacruit.com/pozice/programator-vyvojar-prumyslovych-aplikaci-135062</t>
-  </si>
-  <si>
-    <t>Výuční list</t>
-  </si>
-  <si>
-    <t>čeština (C2) a angličtina (B1)</t>
-  </si>
-  <si>
-    <t>Node.js Developer</t>
-  </si>
-  <si>
-    <t>https://jobs.datacruit.com/pozice/node-js-developer-136750</t>
-  </si>
-  <si>
-    <t>angličtina (B1)</t>
-  </si>
-  <si>
-    <t>C#/.NET Back-End Developer</t>
-  </si>
-  <si>
-    <t>https://jobs.datacruit.com/pozice/c-net-back-end-developer-136908</t>
-  </si>
-  <si>
-    <t>English (C1)</t>
-  </si>
-  <si>
-    <t>Data Modeller</t>
-  </si>
-  <si>
-    <t>https://jobs.datacruit.com/pozice/data-modeller-136813</t>
-  </si>
-  <si>
-    <t>Bakalář</t>
-  </si>
-  <si>
-    <t>Czech (C1)</t>
-  </si>
-  <si>
-    <t>Senior Data Scientist</t>
-  </si>
-  <si>
-    <t>https://jobs.datacruit.com/pozice/senior-data-scientist-136812</t>
-  </si>
-  <si>
-    <t>Senior DATA ENGINEER</t>
-  </si>
-  <si>
-    <t>https://jobs.datacruit.com/pozice/senior-data-engineer-136810</t>
-  </si>
-  <si>
-    <t>Global NOC Engineer</t>
-  </si>
-  <si>
-    <t>https://jobs.datacruit.com/pozice/global-noc-engineer-136306</t>
-  </si>
-  <si>
-    <t>MS Dynamics 365/AX SOLUTION DEVELOPER</t>
-  </si>
-  <si>
-    <t>https://jobs.datacruit.com/pozice/ms-dynamics-365-ax-solution-developer-124727</t>
-  </si>
-  <si>
-    <t>angličtina (B1) a čeština (C1)</t>
-  </si>
-  <si>
-    <t>Data Engineer</t>
-  </si>
-  <si>
-    <t>https://jobs.datacruit.com/pozice/data-engineer-135339</t>
-  </si>
-  <si>
-    <t>čeština (C2) a angličtina (B2)</t>
-  </si>
-  <si>
-    <t>Senior Network Engineer</t>
-  </si>
-  <si>
-    <t>https://jobs.datacruit.com/pozice/senior-network-engineer-137583</t>
-  </si>
-  <si>
-    <t>Vyšší odborná škola</t>
-  </si>
-  <si>
-    <t>PHP Developer</t>
-  </si>
-  <si>
-    <t>https://jobs.datacruit.com/pozice/php-developer-137574</t>
-  </si>
-  <si>
-    <t>https://jobs.datacruit.com/pozice/php-developer-137700</t>
-  </si>
-  <si>
-    <t>React Developer (remote)</t>
-  </si>
-  <si>
-    <t>https://jobs.datacruit.com/pozice/react-developer-remote-135670</t>
-  </si>
-  <si>
-    <t>Test Automation Engineer (remote)</t>
-  </si>
-  <si>
-    <t>https://jobs.datacruit.com/pozice/test-automation-engineer-remote-135503</t>
-  </si>
-  <si>
-    <t>DevOps engineer (remote)</t>
-  </si>
-  <si>
-    <t>https://jobs.datacruit.com/pozice/devops-engineer-remote-135525</t>
-  </si>
-  <si>
-    <t>Senior UX Designer</t>
-  </si>
-  <si>
-    <t>https://jobs.datacruit.com/pozice/senior-ux-designer-134796</t>
-  </si>
-  <si>
-    <t>angličtina (B1) a čeština (rodný) nebo slovenština (rodný)</t>
-  </si>
-  <si>
-    <t>Senior DevOps Engineer</t>
-  </si>
-  <si>
-    <t>https://jobs.datacruit.com/pozice/senior-devops-engineer-136853</t>
-  </si>
-  <si>
-    <t>200 - 300 EUR/MD</t>
-  </si>
-  <si>
-    <t>14.06.2021 13:13</t>
-  </si>
-  <si>
-    <t>SAP SuccessFactors Employee Central Specialist</t>
-  </si>
-  <si>
-    <t>https://jobs.datacruit.com/pozice/sap-successfactors-employee-central-specialist-134413</t>
-  </si>
-  <si>
-    <t>250 EUR/deň</t>
-  </si>
-  <si>
-    <t>Test analytik/Tester</t>
-  </si>
-  <si>
-    <t>Greyson Consulting s.r.o.</t>
-  </si>
-  <si>
-    <t>https://jobs.datacruit.com/pozice/test-analytik-tester-124440</t>
-  </si>
-  <si>
-    <t>čeština (rodný) a angličtina (B2) a slovenština (rodný)</t>
-  </si>
-  <si>
-    <t>System Engineer - DevOps</t>
-  </si>
-  <si>
-    <t>https://jobs.datacruit.com/pozice/system-engineer-devops-135985</t>
-  </si>
-  <si>
-    <t>Head of On-Line Business Development</t>
-  </si>
-  <si>
-    <t>KP2 Czech Republic s.r.o.</t>
-  </si>
-  <si>
-    <t>https://jobs.datacruit.com/pozice/head-of-on-line-business-development-137112</t>
-  </si>
-  <si>
-    <t>angličtina (B2) a čeština (rodný)</t>
-  </si>
-  <si>
-    <t>IT recruiter</t>
-  </si>
-  <si>
-    <t>DEV PACK</t>
-  </si>
-  <si>
-    <t>https://jobs.datacruit.com/pozice/it-recruiter-133176</t>
-  </si>
-  <si>
-    <t>Aplikační matematik/SW specialista</t>
-  </si>
-  <si>
-    <t>https://jobs.datacruit.com/pozice/aplikacni-matematik-sw-specialista-136617</t>
-  </si>
-  <si>
-    <t>DevOps Developer</t>
-  </si>
-  <si>
-    <t>https://jobs.datacruit.com/pozice/devops-developer-136778</t>
-  </si>
-  <si>
-    <t>DevOps (MongoDB) Senior</t>
-  </si>
-  <si>
-    <t>https://jobs.datacruit.com/pozice/devops-mongodb-senior-136777</t>
-  </si>
-  <si>
-    <t>Solution Architect</t>
-  </si>
-  <si>
-    <t>https://jobs.datacruit.com/pozice/solution-architect-136757</t>
-  </si>
-  <si>
-    <t>Digital Analyst</t>
-  </si>
-  <si>
-    <t>https://jobs.datacruit.com/pozice/digital-analyst-136744</t>
-  </si>
-  <si>
-    <t>BI Report Builder (5-month contract)</t>
-  </si>
-  <si>
     <t>https://jobs.datacruit.com/pozice/bi-report-builder-5-month-contract-136447</t>
   </si>
   <si>
@@ -672,6 +678,9 @@
     <t>angličtina (C2) a čeština (rodný)</t>
   </si>
   <si>
+    <t>14.06.2021 13:36</t>
+  </si>
+  <si>
     <t>Java Full-stack developer</t>
   </si>
   <si>
@@ -744,9 +753,6 @@
     <t>https://jobs.datacruit.com/pozice/projektovy-manazer-logistika-bankovnictvi-pojistovnictvi-financni-sektor-131255</t>
   </si>
   <si>
-    <t>14.06.2021 13:14</t>
-  </si>
-  <si>
     <t>Data Integry Analyst</t>
   </si>
   <si>
@@ -765,9 +771,6 @@
     <t>https://jobs.datacruit.com/pozice/it-systems-engineering-and-operations-manager-133210</t>
   </si>
   <si>
-    <t>English</t>
-  </si>
-  <si>
     <t>Senior . NET Developer</t>
   </si>
   <si>
@@ -970,6 +973,9 @@
   </si>
   <si>
     <t>https://jobs.datacruit.com/pozice/devops-engineer-117008</t>
+  </si>
+  <si>
+    <t>14.06.2021 13:37</t>
   </si>
   <si>
     <t>Senior UX/UI Designer</t>
@@ -1530,7 +1536,7 @@
         <v>22</v>
       </c>
       <c r="L3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="M3" t="s">
         <v>21</v>
@@ -1556,19 +1562,19 @@
         <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H4" t="s">
         <v>23</v>
@@ -1586,7 +1592,7 @@
         <v>22</v>
       </c>
       <c r="M4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N4" t="s">
         <v>22</v>
@@ -1609,13 +1615,13 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s">
         <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F5" t="s">
         <v>21</v>
@@ -1636,7 +1642,7 @@
         <v>22</v>
       </c>
       <c r="L5" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="M5" t="s">
         <v>21</v>
@@ -1662,19 +1668,19 @@
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H6" t="s">
         <v>23</v>
@@ -1692,13 +1698,13 @@
         <v>22</v>
       </c>
       <c r="M6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N6" t="s">
         <v>22</v>
       </c>
       <c r="O6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P6" t="s">
         <v>22</v>
@@ -1715,19 +1721,19 @@
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H7" t="s">
         <v>23</v>
@@ -1742,10 +1748,10 @@
         <v>22</v>
       </c>
       <c r="L7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N7" t="s">
         <v>22</v>
@@ -1768,16 +1774,16 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G8" t="s">
         <v>22</v>
@@ -1798,7 +1804,7 @@
         <v>22</v>
       </c>
       <c r="M8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N8" t="s">
         <v>22</v>
@@ -1821,19 +1827,19 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H9" t="s">
         <v>23</v>
@@ -1848,10 +1854,10 @@
         <v>22</v>
       </c>
       <c r="L9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N9" t="s">
         <v>22</v>
@@ -1874,16 +1880,16 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G10" t="s">
         <v>22</v>
@@ -1901,10 +1907,10 @@
         <v>22</v>
       </c>
       <c r="L10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N10" t="s">
         <v>22</v>
@@ -1927,16 +1933,16 @@
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G11" t="s">
         <v>22</v>
@@ -1954,10 +1960,10 @@
         <v>22</v>
       </c>
       <c r="L11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N11" t="s">
         <v>22</v>
@@ -1980,16 +1986,16 @@
         <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G12" t="s">
         <v>22</v>
@@ -2007,10 +2013,10 @@
         <v>22</v>
       </c>
       <c r="L12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N12" t="s">
         <v>22</v>
@@ -2033,19 +2039,19 @@
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H13" t="s">
         <v>23</v>
@@ -2057,13 +2063,13 @@
         <v>22</v>
       </c>
       <c r="K13" t="s">
+        <v>63</v>
+      </c>
+      <c r="L13" t="s">
+        <v>22</v>
+      </c>
+      <c r="M13" t="s">
         <v>62</v>
-      </c>
-      <c r="L13" t="s">
-        <v>22</v>
-      </c>
-      <c r="M13" t="s">
-        <v>61</v>
       </c>
       <c r="N13" t="s">
         <v>22</v>
@@ -2086,16 +2092,16 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G14" t="s">
         <v>22</v>
@@ -2116,7 +2122,7 @@
         <v>22</v>
       </c>
       <c r="M14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N14" t="s">
         <v>22</v>
@@ -2139,16 +2145,16 @@
         <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G15" t="s">
         <v>22</v>
@@ -2163,13 +2169,13 @@
         <v>22</v>
       </c>
       <c r="K15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L15" t="s">
         <v>22</v>
       </c>
       <c r="M15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N15" t="s">
         <v>22</v>
@@ -2192,16 +2198,16 @@
         <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E16" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G16" t="s">
         <v>22</v>
@@ -2216,13 +2222,13 @@
         <v>22</v>
       </c>
       <c r="K16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N16" t="s">
         <v>22</v>
@@ -2245,16 +2251,16 @@
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E17" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G17" t="s">
         <v>22</v>
@@ -2269,13 +2275,13 @@
         <v>22</v>
       </c>
       <c r="K17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L17" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N17" t="s">
         <v>22</v>
@@ -2298,13 +2304,13 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F18" t="s">
         <v>21</v>
@@ -2322,10 +2328,10 @@
         <v>22</v>
       </c>
       <c r="K18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L18" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M18" t="s">
         <v>21</v>
@@ -2351,13 +2357,13 @@
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E19" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F19" t="s">
         <v>21</v>
@@ -2375,10 +2381,10 @@
         <v>22</v>
       </c>
       <c r="K19" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M19" t="s">
         <v>21</v>
@@ -2404,13 +2410,13 @@
         <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E20" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F20" t="s">
         <v>21</v>
@@ -2428,10 +2434,10 @@
         <v>22</v>
       </c>
       <c r="K20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L20" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M20" t="s">
         <v>21</v>
@@ -2457,13 +2463,13 @@
         <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E21" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F21" t="s">
         <v>21</v>
@@ -2484,7 +2490,7 @@
         <v>22</v>
       </c>
       <c r="L21" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M21" t="s">
         <v>21</v>
@@ -2510,13 +2516,13 @@
         <v>17</v>
       </c>
       <c r="C22" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E22" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F22" t="s">
         <v>21</v>
@@ -2534,10 +2540,10 @@
         <v>22</v>
       </c>
       <c r="K22" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L22" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="M22" t="s">
         <v>21</v>
@@ -2563,16 +2569,16 @@
         <v>17</v>
       </c>
       <c r="C23" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E23" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G23" t="s">
         <v>22</v>
@@ -2590,10 +2596,10 @@
         <v>22</v>
       </c>
       <c r="L23" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N23" t="s">
         <v>22</v>
@@ -2616,16 +2622,16 @@
         <v>17</v>
       </c>
       <c r="C24" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E24" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G24" t="s">
         <v>22</v>
@@ -2640,13 +2646,13 @@
         <v>22</v>
       </c>
       <c r="K24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L24" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N24" t="s">
         <v>22</v>
@@ -2669,13 +2675,13 @@
         <v>17</v>
       </c>
       <c r="C25" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E25" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F25" t="s">
         <v>21</v>
@@ -2693,10 +2699,10 @@
         <v>22</v>
       </c>
       <c r="K25" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L25" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M25" t="s">
         <v>21</v>
@@ -2722,16 +2728,16 @@
         <v>17</v>
       </c>
       <c r="C26" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D26" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E26" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G26" t="s">
         <v>22</v>
@@ -2752,7 +2758,7 @@
         <v>22</v>
       </c>
       <c r="M26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N26" t="s">
         <v>22</v>
@@ -2775,13 +2781,13 @@
         <v>17</v>
       </c>
       <c r="C27" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D27" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E27" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F27" t="s">
         <v>21</v>
@@ -2802,7 +2808,7 @@
         <v>22</v>
       </c>
       <c r="L27" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="M27" t="s">
         <v>21</v>
@@ -2828,19 +2834,19 @@
         <v>17</v>
       </c>
       <c r="C28" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D28" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E28" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F28" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G28" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H28" t="s">
         <v>23</v>
@@ -2855,10 +2861,10 @@
         <v>22</v>
       </c>
       <c r="L28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M28" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N28" t="s">
         <v>22</v>
@@ -2881,19 +2887,19 @@
         <v>17</v>
       </c>
       <c r="C29" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E29" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G29" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H29" t="s">
         <v>23</v>
@@ -2908,10 +2914,10 @@
         <v>22</v>
       </c>
       <c r="L29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N29" t="s">
         <v>22</v>
@@ -2928,25 +2934,25 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="B30" t="s">
         <v>17</v>
       </c>
       <c r="C30" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D30" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E30" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F30" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G30" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H30" t="s">
         <v>23</v>
@@ -2961,10 +2967,10 @@
         <v>22</v>
       </c>
       <c r="L30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M30" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N30" t="s">
         <v>22</v>
@@ -2981,22 +2987,22 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="B31" t="s">
         <v>17</v>
       </c>
       <c r="C31" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D31" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E31" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G31" t="s">
         <v>22</v>
@@ -3014,10 +3020,10 @@
         <v>22</v>
       </c>
       <c r="L31" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N31" t="s">
         <v>22</v>
@@ -3034,25 +3040,25 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="B32" t="s">
         <v>17</v>
       </c>
       <c r="C32" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D32" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E32" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F32" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G32" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H32" t="s">
         <v>23</v>
@@ -3067,10 +3073,10 @@
         <v>22</v>
       </c>
       <c r="L32" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="M32" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="N32" t="s">
         <v>22</v>
@@ -3087,25 +3093,25 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B33" t="s">
         <v>17</v>
       </c>
       <c r="C33" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D33" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E33" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F33" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G33" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H33" t="s">
         <v>23</v>
@@ -3120,10 +3126,10 @@
         <v>22</v>
       </c>
       <c r="L33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M33" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N33" t="s">
         <v>22</v>
@@ -3140,22 +3146,22 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B34" t="s">
         <v>17</v>
       </c>
       <c r="C34" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D34" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E34" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F34" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G34" t="s">
         <v>22</v>
@@ -3173,10 +3179,10 @@
         <v>22</v>
       </c>
       <c r="L34" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M34" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N34" t="s">
         <v>22</v>
@@ -3193,19 +3199,19 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B35" t="s">
         <v>17</v>
       </c>
       <c r="C35" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D35" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E35" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F35" t="s">
         <v>21</v>
@@ -3246,22 +3252,22 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B36" t="s">
         <v>17</v>
       </c>
       <c r="C36" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D36" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E36" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F36" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G36" t="s">
         <v>22</v>
@@ -3279,10 +3285,10 @@
         <v>22</v>
       </c>
       <c r="L36" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M36" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N36" t="s">
         <v>22</v>
@@ -3299,22 +3305,22 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B37" t="s">
         <v>17</v>
       </c>
       <c r="C37" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D37" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E37" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F37" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G37" t="s">
         <v>22</v>
@@ -3329,19 +3335,19 @@
         <v>22</v>
       </c>
       <c r="K37" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M37" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N37" t="s">
         <v>22</v>
       </c>
       <c r="O37" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P37" t="s">
         <v>22</v>
@@ -3352,22 +3358,22 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B38" t="s">
         <v>17</v>
       </c>
       <c r="C38" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D38" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E38" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F38" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G38" t="s">
         <v>22</v>
@@ -3385,10 +3391,10 @@
         <v>22</v>
       </c>
       <c r="L38" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M38" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N38" t="s">
         <v>22</v>
@@ -3405,22 +3411,22 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B39" t="s">
         <v>17</v>
       </c>
       <c r="C39" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D39" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E39" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F39" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G39" t="s">
         <v>22</v>
@@ -3435,13 +3441,13 @@
         <v>22</v>
       </c>
       <c r="K39" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L39" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M39" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N39" t="s">
         <v>22</v>
@@ -3458,22 +3464,22 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B40" t="s">
         <v>17</v>
       </c>
       <c r="C40" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E40" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F40" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G40" t="s">
         <v>22</v>
@@ -3488,13 +3494,13 @@
         <v>22</v>
       </c>
       <c r="K40" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L40" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M40" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N40" t="s">
         <v>22</v>
@@ -3511,22 +3517,22 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B41" t="s">
         <v>17</v>
       </c>
       <c r="C41" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E41" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F41" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G41" t="s">
         <v>22</v>
@@ -3541,13 +3547,13 @@
         <v>22</v>
       </c>
       <c r="K41" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L41" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M41" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N41" t="s">
         <v>22</v>
@@ -3564,22 +3570,22 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B42" t="s">
         <v>17</v>
       </c>
       <c r="C42" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E42" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F42" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G42" t="s">
         <v>22</v>
@@ -3594,13 +3600,13 @@
         <v>22</v>
       </c>
       <c r="K42" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L42" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M42" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N42" t="s">
         <v>22</v>
@@ -3617,19 +3623,19 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B43" t="s">
         <v>17</v>
       </c>
       <c r="C43" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D43" t="s">
-        <v>19</v>
+        <v>142</v>
       </c>
       <c r="E43" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F43" t="s">
         <v>21</v>
@@ -3650,7 +3656,7 @@
         <v>22</v>
       </c>
       <c r="L43" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="M43" t="s">
         <v>21</v>
@@ -3670,25 +3676,25 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B44" t="s">
         <v>17</v>
       </c>
       <c r="C44" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D44" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E44" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F44" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G44" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H44" t="s">
         <v>23</v>
@@ -3703,10 +3709,10 @@
         <v>22</v>
       </c>
       <c r="L44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M44" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N44" t="s">
         <v>22</v>
@@ -3723,22 +3729,22 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B45" t="s">
         <v>17</v>
       </c>
       <c r="C45" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D45" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E45" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F45" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G45" t="s">
         <v>22</v>
@@ -3756,16 +3762,16 @@
         <v>22</v>
       </c>
       <c r="L45" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M45" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N45" t="s">
         <v>22</v>
       </c>
       <c r="O45" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P45" t="s">
         <v>22</v>
@@ -3776,22 +3782,22 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B46" t="s">
         <v>17</v>
       </c>
       <c r="C46" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D46" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E46" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F46" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G46" t="s">
         <v>22</v>
@@ -3809,10 +3815,10 @@
         <v>22</v>
       </c>
       <c r="L46" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M46" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N46" t="s">
         <v>22</v>
@@ -3829,22 +3835,22 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B47" t="s">
         <v>17</v>
       </c>
       <c r="C47" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D47" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E47" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F47" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G47" t="s">
         <v>22</v>
@@ -3859,13 +3865,13 @@
         <v>22</v>
       </c>
       <c r="K47" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L47" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="M47" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="N47" t="s">
         <v>22</v>
@@ -3882,22 +3888,22 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B48" t="s">
         <v>17</v>
       </c>
       <c r="C48" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D48" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E48" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F48" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G48" t="s">
         <v>22</v>
@@ -3915,10 +3921,10 @@
         <v>22</v>
       </c>
       <c r="L48" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M48" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N48" t="s">
         <v>22</v>
@@ -3935,22 +3941,22 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B49" t="s">
         <v>17</v>
       </c>
       <c r="C49" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D49" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E49" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F49" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G49" t="s">
         <v>22</v>
@@ -3968,10 +3974,10 @@
         <v>22</v>
       </c>
       <c r="L49" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M49" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N49" t="s">
         <v>22</v>
@@ -3988,22 +3994,22 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B50" t="s">
         <v>17</v>
       </c>
       <c r="C50" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D50" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E50" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F50" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G50" t="s">
         <v>22</v>
@@ -4024,7 +4030,7 @@
         <v>22</v>
       </c>
       <c r="M50" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N50" t="s">
         <v>22</v>
@@ -4041,22 +4047,22 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B51" t="s">
         <v>17</v>
       </c>
       <c r="C51" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D51" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E51" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F51" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G51" t="s">
         <v>22</v>
@@ -4074,16 +4080,16 @@
         <v>22</v>
       </c>
       <c r="L51" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M51" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N51" t="s">
         <v>22</v>
       </c>
       <c r="O51" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P51" t="s">
         <v>22</v>
@@ -4094,25 +4100,25 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B52" t="s">
         <v>17</v>
       </c>
       <c r="C52" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D52" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E52" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F52" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G52" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H52" t="s">
         <v>23</v>
@@ -4124,13 +4130,13 @@
         <v>22</v>
       </c>
       <c r="K52" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L52" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="M52" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="N52" t="s">
         <v>22</v>
@@ -4147,22 +4153,22 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B53" t="s">
         <v>17</v>
       </c>
       <c r="C53" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D53" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E53" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F53" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G53" t="s">
         <v>22</v>
@@ -4183,7 +4189,7 @@
         <v>22</v>
       </c>
       <c r="M53" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N53" t="s">
         <v>22</v>
@@ -4200,25 +4206,25 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B54" t="s">
         <v>17</v>
       </c>
       <c r="C54" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D54" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E54" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F54" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G54" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H54" t="s">
         <v>23</v>
@@ -4233,10 +4239,10 @@
         <v>22</v>
       </c>
       <c r="L54" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M54" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="N54" t="s">
         <v>22</v>
@@ -4253,25 +4259,25 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B55" t="s">
         <v>17</v>
       </c>
       <c r="C55" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D55" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E55" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F55" t="s">
         <v>21</v>
       </c>
       <c r="G55" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H55" t="s">
         <v>23</v>
@@ -4286,7 +4292,7 @@
         <v>22</v>
       </c>
       <c r="L55" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M55" t="s">
         <v>21</v>
@@ -4306,25 +4312,25 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B56" t="s">
         <v>17</v>
       </c>
       <c r="C56" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D56" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E56" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F56" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G56" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H56" t="s">
         <v>23</v>
@@ -4339,10 +4345,10 @@
         <v>22</v>
       </c>
       <c r="L56" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M56" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N56" t="s">
         <v>22</v>
@@ -4359,22 +4365,22 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B57" t="s">
         <v>17</v>
       </c>
       <c r="C57" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D57" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E57" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F57" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G57" t="s">
         <v>22</v>
@@ -4395,7 +4401,7 @@
         <v>22</v>
       </c>
       <c r="M57" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N57" t="s">
         <v>22</v>
@@ -4412,22 +4418,22 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B58" t="s">
         <v>17</v>
       </c>
       <c r="C58" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D58" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E58" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F58" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G58" t="s">
         <v>22</v>
@@ -4448,7 +4454,7 @@
         <v>22</v>
       </c>
       <c r="M58" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N58" t="s">
         <v>22</v>
@@ -4465,22 +4471,22 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B59" t="s">
         <v>17</v>
       </c>
       <c r="C59" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D59" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E59" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F59" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G59" t="s">
         <v>22</v>
@@ -4501,7 +4507,7 @@
         <v>22</v>
       </c>
       <c r="M59" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N59" t="s">
         <v>22</v>
@@ -4518,22 +4524,22 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B60" t="s">
         <v>17</v>
       </c>
       <c r="C60" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D60" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E60" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F60" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G60" t="s">
         <v>22</v>
@@ -4554,7 +4560,7 @@
         <v>22</v>
       </c>
       <c r="M60" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N60" t="s">
         <v>22</v>
@@ -4571,22 +4577,22 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B61" t="s">
         <v>17</v>
       </c>
       <c r="C61" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D61" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E61" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F61" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G61" t="s">
         <v>22</v>
@@ -4607,7 +4613,7 @@
         <v>22</v>
       </c>
       <c r="M61" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N61" t="s">
         <v>22</v>
@@ -4624,22 +4630,22 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B62" t="s">
         <v>17</v>
       </c>
       <c r="C62" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D62" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E62" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F62" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G62" t="s">
         <v>22</v>
@@ -4660,7 +4666,7 @@
         <v>22</v>
       </c>
       <c r="M62" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N62" t="s">
         <v>22</v>
@@ -4677,22 +4683,22 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B63" t="s">
         <v>17</v>
       </c>
       <c r="C63" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D63" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E63" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F63" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G63" t="s">
         <v>22</v>
@@ -4713,7 +4719,7 @@
         <v>22</v>
       </c>
       <c r="M63" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N63" t="s">
         <v>22</v>
@@ -4730,22 +4736,22 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B64" t="s">
         <v>17</v>
       </c>
       <c r="C64" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D64" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E64" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F64" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G64" t="s">
         <v>22</v>
@@ -4763,10 +4769,10 @@
         <v>22</v>
       </c>
       <c r="L64" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M64" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N64" t="s">
         <v>22</v>
@@ -4783,22 +4789,22 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B65" t="s">
         <v>17</v>
       </c>
       <c r="C65" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D65" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E65" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F65" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G65" t="s">
         <v>22</v>
@@ -4816,10 +4822,10 @@
         <v>22</v>
       </c>
       <c r="L65" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M65" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N65" t="s">
         <v>22</v>
@@ -4836,22 +4842,22 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B66" t="s">
         <v>17</v>
       </c>
       <c r="C66" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D66" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F66" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G66" t="s">
         <v>22</v>
@@ -4869,10 +4875,10 @@
         <v>22</v>
       </c>
       <c r="L66" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M66" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N66" t="s">
         <v>22</v>
@@ -4889,22 +4895,22 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B67" t="s">
         <v>17</v>
       </c>
       <c r="C67" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D67" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E67" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F67" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G67" t="s">
         <v>22</v>
@@ -4922,10 +4928,10 @@
         <v>22</v>
       </c>
       <c r="L67" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="M67" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N67" t="s">
         <v>22</v>
@@ -4942,22 +4948,22 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B68" t="s">
         <v>17</v>
       </c>
       <c r="C68" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D68" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E68" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F68" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G68" t="s">
         <v>22</v>
@@ -4978,7 +4984,7 @@
         <v>22</v>
       </c>
       <c r="M68" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N68" t="s">
         <v>22</v>
@@ -4995,22 +5001,22 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B69" t="s">
         <v>17</v>
       </c>
       <c r="C69" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D69" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E69" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F69" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G69" t="s">
         <v>22</v>
@@ -5025,13 +5031,13 @@
         <v>22</v>
       </c>
       <c r="K69" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L69" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M69" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N69" t="s">
         <v>22</v>
@@ -5048,22 +5054,22 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B70" t="s">
         <v>17</v>
       </c>
       <c r="C70" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D70" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E70" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F70" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G70" t="s">
         <v>22</v>
@@ -5081,10 +5087,10 @@
         <v>22</v>
       </c>
       <c r="L70" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M70" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N70" t="s">
         <v>22</v>
@@ -5101,22 +5107,22 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B71" t="s">
         <v>17</v>
       </c>
       <c r="C71" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D71" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E71" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F71" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G71" t="s">
         <v>22</v>
@@ -5137,7 +5143,7 @@
         <v>22</v>
       </c>
       <c r="M71" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N71" t="s">
         <v>22</v>
@@ -5154,22 +5160,22 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B72" t="s">
         <v>17</v>
       </c>
       <c r="C72" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D72" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E72" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F72" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G72" t="s">
         <v>22</v>
@@ -5187,16 +5193,16 @@
         <v>22</v>
       </c>
       <c r="L72" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M72" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N72" t="s">
         <v>22</v>
       </c>
       <c r="O72" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P72" t="s">
         <v>22</v>
@@ -5207,22 +5213,22 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B73" t="s">
         <v>17</v>
       </c>
       <c r="C73" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D73" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E73" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F73" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G73" t="s">
         <v>22</v>
@@ -5240,16 +5246,16 @@
         <v>22</v>
       </c>
       <c r="L73" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="M73" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N73" t="s">
         <v>22</v>
       </c>
       <c r="O73" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P73" t="s">
         <v>22</v>
@@ -5260,22 +5266,22 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>113</v>
+        <v>214</v>
       </c>
       <c r="B74" t="s">
         <v>17</v>
       </c>
       <c r="C74" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D74" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E74" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="F74" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G74" t="s">
         <v>22</v>
@@ -5293,16 +5299,16 @@
         <v>22</v>
       </c>
       <c r="L74" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M74" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N74" t="s">
         <v>22</v>
       </c>
       <c r="O74" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P74" t="s">
         <v>22</v>
@@ -5313,22 +5319,22 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>113</v>
+        <v>214</v>
       </c>
       <c r="B75" t="s">
         <v>17</v>
       </c>
       <c r="C75" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D75" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E75" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="F75" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G75" t="s">
         <v>22</v>
@@ -5346,16 +5352,16 @@
         <v>22</v>
       </c>
       <c r="L75" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M75" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N75" t="s">
         <v>22</v>
       </c>
       <c r="O75" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P75" t="s">
         <v>22</v>
@@ -5366,22 +5372,22 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>113</v>
+        <v>214</v>
       </c>
       <c r="B76" t="s">
         <v>17</v>
       </c>
       <c r="C76" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D76" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E76" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="F76" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G76" t="s">
         <v>22</v>
@@ -5399,16 +5405,16 @@
         <v>22</v>
       </c>
       <c r="L76" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="M76" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N76" t="s">
         <v>22</v>
       </c>
       <c r="O76" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P76" t="s">
         <v>22</v>
@@ -5419,22 +5425,22 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>113</v>
+        <v>214</v>
       </c>
       <c r="B77" t="s">
         <v>17</v>
       </c>
       <c r="C77" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D77" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E77" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="F77" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G77" t="s">
         <v>22</v>
@@ -5452,16 +5458,16 @@
         <v>22</v>
       </c>
       <c r="L77" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M77" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N77" t="s">
         <v>22</v>
       </c>
       <c r="O77" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P77" t="s">
         <v>22</v>
@@ -5472,22 +5478,22 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>113</v>
+        <v>214</v>
       </c>
       <c r="B78" t="s">
         <v>17</v>
       </c>
       <c r="C78" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D78" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E78" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="F78" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G78" t="s">
         <v>22</v>
@@ -5505,16 +5511,16 @@
         <v>22</v>
       </c>
       <c r="L78" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M78" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N78" t="s">
         <v>22</v>
       </c>
       <c r="O78" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P78" t="s">
         <v>22</v>
@@ -5525,22 +5531,22 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>113</v>
+        <v>214</v>
       </c>
       <c r="B79" t="s">
         <v>17</v>
       </c>
       <c r="C79" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D79" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E79" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="F79" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="G79" t="s">
         <v>22</v>
@@ -5558,10 +5564,10 @@
         <v>22</v>
       </c>
       <c r="L79" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M79" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="N79" t="s">
         <v>22</v>
@@ -5578,19 +5584,19 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>113</v>
+        <v>214</v>
       </c>
       <c r="B80" t="s">
         <v>17</v>
       </c>
       <c r="C80" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D80" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="E80" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="F80" t="s">
         <v>21</v>
@@ -5611,7 +5617,7 @@
         <v>22</v>
       </c>
       <c r="L80" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="M80" t="s">
         <v>21</v>
@@ -5631,22 +5637,22 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>113</v>
+        <v>214</v>
       </c>
       <c r="B81" t="s">
         <v>17</v>
       </c>
       <c r="C81" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D81" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E81" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="F81" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G81" t="s">
         <v>22</v>
@@ -5661,13 +5667,13 @@
         <v>22</v>
       </c>
       <c r="K81" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L81" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="M81" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N81" t="s">
         <v>22</v>
@@ -5684,22 +5690,22 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>113</v>
+        <v>214</v>
       </c>
       <c r="B82" t="s">
         <v>17</v>
       </c>
       <c r="C82" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D82" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E82" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="F82" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="G82" t="s">
         <v>22</v>
@@ -5714,13 +5720,13 @@
         <v>22</v>
       </c>
       <c r="K82" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L82" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="M82" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="N82" t="s">
         <v>22</v>
@@ -5737,22 +5743,22 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>113</v>
+        <v>214</v>
       </c>
       <c r="B83" t="s">
         <v>17</v>
       </c>
       <c r="C83" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D83" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E83" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="F83" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G83" t="s">
         <v>22</v>
@@ -5767,13 +5773,13 @@
         <v>22</v>
       </c>
       <c r="K83" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L83" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M83" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N83" t="s">
         <v>22</v>
@@ -5790,22 +5796,22 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="B84" t="s">
         <v>17</v>
       </c>
       <c r="C84" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D84" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E84" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F84" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G84" t="s">
         <v>22</v>
@@ -5823,16 +5829,16 @@
         <v>22</v>
       </c>
       <c r="L84" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M84" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N84" t="s">
         <v>22</v>
       </c>
       <c r="O84" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P84" t="s">
         <v>22</v>
@@ -5843,22 +5849,22 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="B85" t="s">
         <v>17</v>
       </c>
       <c r="C85" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D85" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E85" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F85" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G85" t="s">
         <v>22</v>
@@ -5876,16 +5882,16 @@
         <v>22</v>
       </c>
       <c r="L85" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M85" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N85" t="s">
         <v>22</v>
       </c>
       <c r="O85" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P85" t="s">
         <v>22</v>
@@ -5896,19 +5902,19 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="B86" t="s">
         <v>17</v>
       </c>
       <c r="C86" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D86" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E86" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F86" t="s">
         <v>21</v>
@@ -5929,7 +5935,7 @@
         <v>22</v>
       </c>
       <c r="L86" t="s">
-        <v>243</v>
+        <v>24</v>
       </c>
       <c r="M86" t="s">
         <v>21</v>
@@ -5949,22 +5955,22 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="B87" t="s">
         <v>17</v>
       </c>
       <c r="C87" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D87" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E87" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F87" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G87" t="s">
         <v>22</v>
@@ -5979,13 +5985,13 @@
         <v>22</v>
       </c>
       <c r="K87" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L87" t="s">
         <v>22</v>
       </c>
       <c r="M87" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N87" t="s">
         <v>22</v>
@@ -6002,22 +6008,22 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="B88" t="s">
         <v>17</v>
       </c>
       <c r="C88" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D88" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E88" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F88" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G88" t="s">
         <v>22</v>
@@ -6032,13 +6038,13 @@
         <v>22</v>
       </c>
       <c r="K88" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L88" t="s">
         <v>22</v>
       </c>
       <c r="M88" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N88" t="s">
         <v>22</v>
@@ -6055,22 +6061,22 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="B89" t="s">
         <v>17</v>
       </c>
       <c r="C89" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D89" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E89" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F89" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G89" t="s">
         <v>22</v>
@@ -6085,13 +6091,13 @@
         <v>22</v>
       </c>
       <c r="K89" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L89" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M89" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N89" t="s">
         <v>22</v>
@@ -6108,19 +6114,19 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="B90" t="s">
         <v>17</v>
       </c>
       <c r="C90" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D90" t="s">
-        <v>19</v>
+        <v>142</v>
       </c>
       <c r="E90" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F90" t="s">
         <v>21</v>
@@ -6141,7 +6147,7 @@
         <v>22</v>
       </c>
       <c r="L90" t="s">
-        <v>243</v>
+        <v>24</v>
       </c>
       <c r="M90" t="s">
         <v>21</v>
@@ -6161,22 +6167,22 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="B91" t="s">
         <v>17</v>
       </c>
       <c r="C91" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D91" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E91" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F91" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G91" t="s">
         <v>22</v>
@@ -6194,10 +6200,10 @@
         <v>22</v>
       </c>
       <c r="L91" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M91" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N91" t="s">
         <v>22</v>
@@ -6214,22 +6220,22 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="B92" t="s">
         <v>17</v>
       </c>
       <c r="C92" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D92" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E92" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F92" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G92" t="s">
         <v>22</v>
@@ -6247,16 +6253,16 @@
         <v>22</v>
       </c>
       <c r="L92" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M92" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N92" t="s">
         <v>22</v>
       </c>
       <c r="O92" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P92" t="s">
         <v>22</v>
@@ -6267,22 +6273,22 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="B93" t="s">
         <v>17</v>
       </c>
       <c r="C93" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D93" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E93" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F93" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G93" t="s">
         <v>22</v>
@@ -6300,16 +6306,16 @@
         <v>22</v>
       </c>
       <c r="L93" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M93" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N93" t="s">
         <v>22</v>
       </c>
       <c r="O93" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P93" t="s">
         <v>22</v>
@@ -6320,22 +6326,22 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="B94" t="s">
         <v>17</v>
       </c>
       <c r="C94" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D94" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E94" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F94" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G94" t="s">
         <v>22</v>
@@ -6353,16 +6359,16 @@
         <v>22</v>
       </c>
       <c r="L94" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M94" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N94" t="s">
         <v>22</v>
       </c>
       <c r="O94" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P94" t="s">
         <v>22</v>
@@ -6373,22 +6379,22 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="B95" t="s">
         <v>17</v>
       </c>
       <c r="C95" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D95" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E95" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F95" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G95" t="s">
         <v>22</v>
@@ -6406,16 +6412,16 @@
         <v>22</v>
       </c>
       <c r="L95" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M95" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N95" t="s">
         <v>22</v>
       </c>
       <c r="O95" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P95" t="s">
         <v>22</v>
@@ -6426,22 +6432,22 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="B96" t="s">
         <v>17</v>
       </c>
       <c r="C96" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D96" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E96" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F96" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G96" t="s">
         <v>22</v>
@@ -6459,16 +6465,16 @@
         <v>22</v>
       </c>
       <c r="L96" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M96" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N96" t="s">
         <v>22</v>
       </c>
       <c r="O96" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P96" t="s">
         <v>22</v>
@@ -6479,22 +6485,22 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="B97" t="s">
         <v>17</v>
       </c>
       <c r="C97" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D97" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E97" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F97" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G97" t="s">
         <v>22</v>
@@ -6512,16 +6518,16 @@
         <v>22</v>
       </c>
       <c r="L97" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M97" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N97" t="s">
         <v>22</v>
       </c>
       <c r="O97" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P97" t="s">
         <v>22</v>
@@ -6532,22 +6538,22 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="B98" t="s">
         <v>17</v>
       </c>
       <c r="C98" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D98" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E98" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F98" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G98" t="s">
         <v>22</v>
@@ -6565,16 +6571,16 @@
         <v>22</v>
       </c>
       <c r="L98" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M98" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N98" t="s">
         <v>22</v>
       </c>
       <c r="O98" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P98" t="s">
         <v>22</v>
@@ -6585,22 +6591,22 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="B99" t="s">
         <v>17</v>
       </c>
       <c r="C99" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D99" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E99" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F99" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G99" t="s">
         <v>22</v>
@@ -6618,16 +6624,16 @@
         <v>22</v>
       </c>
       <c r="L99" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M99" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N99" t="s">
         <v>22</v>
       </c>
       <c r="O99" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P99" t="s">
         <v>22</v>
@@ -6638,22 +6644,22 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="B100" t="s">
         <v>17</v>
       </c>
       <c r="C100" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D100" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E100" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F100" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G100" t="s">
         <v>22</v>
@@ -6668,13 +6674,13 @@
         <v>22</v>
       </c>
       <c r="K100" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L100" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M100" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N100" t="s">
         <v>22</v>
@@ -6691,22 +6697,22 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="B101" t="s">
         <v>17</v>
       </c>
       <c r="C101" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D101" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E101" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F101" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G101" t="s">
         <v>22</v>
@@ -6724,10 +6730,10 @@
         <v>22</v>
       </c>
       <c r="L101" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M101" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N101" t="s">
         <v>22</v>
@@ -6744,22 +6750,22 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="B102" t="s">
         <v>17</v>
       </c>
       <c r="C102" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D102" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E102" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F102" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G102" t="s">
         <v>22</v>
@@ -6777,16 +6783,16 @@
         <v>22</v>
       </c>
       <c r="L102" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M102" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N102" t="s">
         <v>22</v>
       </c>
       <c r="O102" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P102" t="s">
         <v>22</v>
@@ -6797,22 +6803,22 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="B103" t="s">
         <v>17</v>
       </c>
       <c r="C103" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D103" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E103" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F103" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G103" t="s">
         <v>22</v>
@@ -6830,16 +6836,16 @@
         <v>22</v>
       </c>
       <c r="L103" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M103" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N103" t="s">
         <v>22</v>
       </c>
       <c r="O103" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P103" t="s">
         <v>22</v>
@@ -6850,22 +6856,22 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="B104" t="s">
         <v>17</v>
       </c>
       <c r="C104" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D104" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E104" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F104" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G104" t="s">
         <v>22</v>
@@ -6883,16 +6889,16 @@
         <v>22</v>
       </c>
       <c r="L104" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M104" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N104" t="s">
         <v>22</v>
       </c>
       <c r="O104" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P104" t="s">
         <v>22</v>
@@ -6903,22 +6909,22 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="B105" t="s">
         <v>17</v>
       </c>
       <c r="C105" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D105" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E105" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F105" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G105" t="s">
         <v>22</v>
@@ -6936,16 +6942,16 @@
         <v>22</v>
       </c>
       <c r="L105" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M105" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N105" t="s">
         <v>22</v>
       </c>
       <c r="O105" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P105" t="s">
         <v>22</v>
@@ -6956,22 +6962,22 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="B106" t="s">
         <v>17</v>
       </c>
       <c r="C106" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D106" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E106" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F106" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G106" t="s">
         <v>22</v>
@@ -6989,16 +6995,16 @@
         <v>22</v>
       </c>
       <c r="L106" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M106" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N106" t="s">
         <v>22</v>
       </c>
       <c r="O106" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P106" t="s">
         <v>22</v>
@@ -7009,22 +7015,22 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="B107" t="s">
         <v>17</v>
       </c>
       <c r="C107" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D107" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E107" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F107" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G107" t="s">
         <v>22</v>
@@ -7042,16 +7048,16 @@
         <v>22</v>
       </c>
       <c r="L107" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M107" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N107" t="s">
         <v>22</v>
       </c>
       <c r="O107" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P107" t="s">
         <v>22</v>
@@ -7062,22 +7068,22 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="B108" t="s">
         <v>17</v>
       </c>
       <c r="C108" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D108" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E108" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F108" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G108" t="s">
         <v>22</v>
@@ -7095,16 +7101,16 @@
         <v>22</v>
       </c>
       <c r="L108" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M108" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N108" t="s">
         <v>22</v>
       </c>
       <c r="O108" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P108" t="s">
         <v>22</v>
@@ -7115,22 +7121,22 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="B109" t="s">
         <v>17</v>
       </c>
       <c r="C109" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D109" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E109" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F109" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G109" t="s">
         <v>22</v>
@@ -7148,16 +7154,16 @@
         <v>22</v>
       </c>
       <c r="L109" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M109" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N109" t="s">
         <v>22</v>
       </c>
       <c r="O109" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P109" t="s">
         <v>22</v>
@@ -7168,22 +7174,22 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="B110" t="s">
         <v>17</v>
       </c>
       <c r="C110" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D110" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E110" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F110" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G110" t="s">
         <v>22</v>
@@ -7198,19 +7204,19 @@
         <v>22</v>
       </c>
       <c r="K110" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L110" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M110" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N110" t="s">
         <v>22</v>
       </c>
       <c r="O110" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P110" t="s">
         <v>22</v>
@@ -7221,22 +7227,22 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="B111" t="s">
         <v>17</v>
       </c>
       <c r="C111" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D111" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E111" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F111" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G111" t="s">
         <v>22</v>
@@ -7254,16 +7260,16 @@
         <v>22</v>
       </c>
       <c r="L111" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M111" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N111" t="s">
         <v>22</v>
       </c>
       <c r="O111" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P111" t="s">
         <v>22</v>
@@ -7274,22 +7280,22 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="B112" t="s">
         <v>17</v>
       </c>
       <c r="C112" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D112" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E112" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F112" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G112" t="s">
         <v>22</v>
@@ -7307,10 +7313,10 @@
         <v>22</v>
       </c>
       <c r="L112" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="M112" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N112" t="s">
         <v>22</v>
@@ -7327,22 +7333,22 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="B113" t="s">
         <v>17</v>
       </c>
       <c r="C113" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D113" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E113" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F113" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G113" t="s">
         <v>22</v>
@@ -7360,10 +7366,10 @@
         <v>22</v>
       </c>
       <c r="L113" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M113" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N113" t="s">
         <v>22</v>
@@ -7380,22 +7386,22 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="B114" t="s">
         <v>17</v>
       </c>
       <c r="C114" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D114" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E114" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F114" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G114" t="s">
         <v>22</v>
@@ -7413,10 +7419,10 @@
         <v>22</v>
       </c>
       <c r="L114" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M114" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N114" t="s">
         <v>22</v>
@@ -7433,22 +7439,22 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="B115" t="s">
         <v>17</v>
       </c>
       <c r="C115" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D115" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E115" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F115" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G115" t="s">
         <v>22</v>
@@ -7469,7 +7475,7 @@
         <v>22</v>
       </c>
       <c r="M115" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N115" t="s">
         <v>22</v>
@@ -7486,22 +7492,22 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="B116" t="s">
         <v>17</v>
       </c>
       <c r="C116" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D116" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E116" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F116" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G116" t="s">
         <v>22</v>
@@ -7522,7 +7528,7 @@
         <v>22</v>
       </c>
       <c r="M116" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N116" t="s">
         <v>22</v>
@@ -7539,22 +7545,22 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="B117" t="s">
         <v>17</v>
       </c>
       <c r="C117" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D117" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E117" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F117" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G117" t="s">
         <v>22</v>
@@ -7575,7 +7581,7 @@
         <v>22</v>
       </c>
       <c r="M117" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N117" t="s">
         <v>22</v>
@@ -7592,22 +7598,22 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="B118" t="s">
         <v>17</v>
       </c>
       <c r="C118" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D118" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E118" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F118" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G118" t="s">
         <v>22</v>
@@ -7628,7 +7634,7 @@
         <v>22</v>
       </c>
       <c r="M118" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N118" t="s">
         <v>22</v>
@@ -7645,19 +7651,19 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>236</v>
+        <v>313</v>
       </c>
       <c r="B119" t="s">
         <v>17</v>
       </c>
       <c r="C119" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D119" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="E119" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="F119" t="s">
         <v>21</v>
@@ -7678,7 +7684,7 @@
         <v>22</v>
       </c>
       <c r="L119" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="M119" t="s">
         <v>21</v>
@@ -7698,22 +7704,22 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>236</v>
+        <v>313</v>
       </c>
       <c r="B120" t="s">
         <v>17</v>
       </c>
       <c r="C120" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D120" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="E120" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="F120" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G120" t="s">
         <v>22</v>
@@ -7731,10 +7737,10 @@
         <v>22</v>
       </c>
       <c r="L120" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M120" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N120" t="s">
         <v>22</v>
@@ -7751,19 +7757,19 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>236</v>
+        <v>313</v>
       </c>
       <c r="B121" t="s">
         <v>17</v>
       </c>
       <c r="C121" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D121" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="E121" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="F121" t="s">
         <v>21</v>
@@ -7781,10 +7787,10 @@
         <v>22</v>
       </c>
       <c r="K121" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L121" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="M121" t="s">
         <v>21</v>
@@ -7804,22 +7810,22 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>236</v>
+        <v>313</v>
       </c>
       <c r="B122" t="s">
         <v>17</v>
       </c>
       <c r="C122" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D122" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E122" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="F122" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G122" t="s">
         <v>22</v>
@@ -7840,7 +7846,7 @@
         <v>22</v>
       </c>
       <c r="M122" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N122" t="s">
         <v>22</v>
@@ -7857,22 +7863,22 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>236</v>
+        <v>313</v>
       </c>
       <c r="B123" t="s">
         <v>17</v>
       </c>
       <c r="C123" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D123" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="E123" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="F123" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G123" t="s">
         <v>22</v>
@@ -7887,13 +7893,13 @@
         <v>22</v>
       </c>
       <c r="K123" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L123" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="M123" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N123" t="s">
         <v>22</v>
@@ -7910,22 +7916,22 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>236</v>
+        <v>313</v>
       </c>
       <c r="B124" t="s">
         <v>17</v>
       </c>
       <c r="C124" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D124" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="E124" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="F124" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G124" t="s">
         <v>22</v>
@@ -7940,13 +7946,13 @@
         <v>22</v>
       </c>
       <c r="K124" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L124" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="M124" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N124" t="s">
         <v>22</v>
